--- a/docs/assets/disciplinas/LOB1226.xlsx
+++ b/docs/assets/disciplinas/LOB1226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-8</t>
+    <t>EA-7</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -140,10 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOB1210 -  Solos II  (Requisito fraco)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1240 -  Condicionantes Geológico (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -500,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,14 +741,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOB1226.xlsx
+++ b/docs/assets/disciplinas/LOB1226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer aos discentes conhecimentos e informações básicas sobre técnicas e práticas de recuperação de áreas degradadas. Essas informações dizem respeito a legislação e normas vigentes, investigação, caracterização geotécnica, implementação de planos de recuperação e monitoramento.</t>
+    <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução e conceitos; identificação do problema: tipos de áreas; legislação e normas; geoindicadores de degradação; técnicas de recuperação de áreas degradadas; implementação de planos de recuperação; monitoramento.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Degradação e recuperação ambiental; geoindicadores de degradação; legislação e normas aplicadas à recuperação de áreas degradadas; aspectos e níveis de recuperação; tipos de áreas degradadas; técnicas e medidas de recuperação de áreas degradadas; critérios para a seleção de alternativas; implementação de planos de recuperação; monitoramento; exemplos de recuperação de áreas degradadas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Provas e/ou exercícios dirigidos.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:Barrow, C.J. Land Degradation Cambridge University Press, 1991.Berger, A.R. The geoindicator concept and its application: An introduction. In: Berger, A.R. &amp; Iams, W.J. (EDTS) Assessing Rapid Environmental Geoindicators: Changers in Earth Systems. pp.: 1-14 Balkema, Rotterdam, 1996.Blaikie, P. &amp; Brookfield, H. Land degradation and society. London Methuen, 1987Brunsden, D. and Moore, R. Engineering geomorphology on the coast: lessons from West Dorset. Geomorphology 31: 391-409, 1999.CALIJURI, M.C.; CUNHA, D.G.F. Engenharia Ambiental. Conceitos, Tecnologia e Gestão. Rio de Janeiro, Elsevier, 2013.Dahlberg, A.C. Interpretations of environmetal change and diversity: A critical approach to indications of degradation - The case of Kalakamate, Northeast Botswana. Land degradation &amp; Development, 11: 549-562, 2000.DIAS, L.E; GRIFFTITH,J.J. Conceituação e Caracterização de Áreas Degradadas. In: DIAS, L.E; MELLO, J.W.V (orgs). Recuperação de Áreas Degradadas. Universidade Federal de Viçosa. Sociedade Brasileira de Recuperação de Áreas Degradadas, 1998.Duque, M.J.F., Pedroza, J., Ciez, A., Sanz, M.A. &amp; Carrasco, R.M.. A geomorphical design for the rehabilitation of an abandoned sand quarry in central Spain. Landscape and urban planning, 42: 1-14, 1998.GUERRA, A. J. T.; ARAUJO, G., ALMEIDA, J. R. Gestão Ambiental De Áreas Degradadas. Rio de Janeiro : Bertrand Brasil, 2007.Marchetti, M. &amp; Panizza, M. Geomorphology and Environmental Impact Assesssment: A case study in Moema (Dolomites - Italy). In: Marchetti, M &amp; Pinas, V. (EDS). Geomorphology and Environemental Impact Assessements pp: 71-82, Balkema, 2001.MARTINS, S.V. Recuperação de Áreas Degradadas. Universidade Federal de Viçosa. Viçosa, 2013.Neimanis, U. &amp; kerr, A. Developing national environmental indicators. In: Berger, A.R. &amp; Iams, W.J. (EDTS) Assessing rapid environmental geoindicators: changes in earth systems. 1996.SANCHEZ, L.E. Desengenharia: o passive ambiental na desativaçao de empreendimentos industriais. São Paulo, EDUSP, 2001.SANCHEZ, L.E. Avaliação de Impacto Ambiental. São Paulo, Oficina de Textos, 2006.Bibliografia complementar:Berger, A.R. Assessing Rapid Environmetal Change Using Geoindicators. Environmetal Geology, 32, n. 1, 36-44, 1997.Fao. A provisional methodology for soil degradation assessment. FAO. Rome, 1979,Lindskog, P. and Tengberg, A. Land degradation, Natural resources and local knowledge in the Sahel zone of Burkina Faso. Geojournal, 33, 365-375, 1994.Morton, R. A. Geoindicators of coastal wet land and shorelines. In: berger, A.R. &amp; Iams, W.J. (EDTS) Assessing Rapid Environmental Geoindicators: Changes inEarth Systems. pp: 207-232, 1996.Murthy, R.C. Rao, Y. R. and Inamdar, A.B. Integrated coastal management of Mumbai Metropolitan Region. Ocean &amp; Coastal Management 44: 355-369, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1226.xlsx
+++ b/docs/assets/disciplinas/LOB1226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer aos discentes conhecimentos e informações básicas sobre técnicas e práticas de recuperação de áreas degradadas. Essas informações dizem respeito a legislação e normas vigentes, investigação, caracterização geotécnica, implementação de planos de recuperação e monitoramento.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Providing basic knowledge and information (current legislation and standards, research, geotechnical characterization, implementation of recovery plans and monitoring) about techniques and practices for degraded areas recovery.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840942 - Marco Aurélio Kondracki de Alcântara</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Providing basic knowledge and information (current legislation and standards, research, geotechnical characterization, implementation of recovery plans and monitoring) about techniques and practices for degraded areas recovery.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução e conceitos; identificação do problema: tipos de áreas; legislação e normas; geoindicadores de degradação; técnicas de recuperação de áreas degradadas; implementação de planos de recuperação; monitoramento.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Degradação e recuperação ambiental; geoindicadores de degradação; legislação e normas aplicadas à recuperação de áreas degradadas; aspectos e níveis de recuperação; tipos de áreas degradadas; técnicas e medidas de recuperação de áreas degradadas; critérios para a seleção de alternativas; implementação de planos de recuperação; monitoramento; exemplos de recuperação de áreas degradadas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos. Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Provas e/ou exercícios dirigidos.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Provas e/ou exercícios dirigidos.</t>
+    <t>Bibliografia básica:Barrow, C.J. Land Degradation Cambridge University Press, 1991.Berger, A.R. The geoindicator concept and its application: An introduction. In: Berger, A.R. &amp; Iams, W.J. (EDTS) Assessing Rapid Environmental Geoindicators: Changers in Earth Systems. pp.: 1-14 Balkema, Rotterdam, 1996.Blaikie, P. &amp; Brookfield, H. Land degradation and society. London Methuen, 1987Brunsden, D. and Moore, R. Engineering geomorphology on the coast: lessons from West Dorset. Geomorphology 31: 391-409, 1999.CALIJURI, M.C.; CUNHA, D.G.F. Engenharia Ambiental. Conceitos, Tecnologia e Gestão. Rio de Janeiro, Elsevier, 2013.Dahlberg, A.C. Interpretations of environmetal change and diversity: A critical approach to indications of degradation - The case of Kalakamate, Northeast Botswana. Land degradation &amp; Development, 11: 549-562, 2000.DIAS, L.E; GRIFFTITH,J.J. Conceituação e Caracterização de Áreas Degradadas. In: DIAS, L.E; MELLO, J.W.V (orgs). Recuperação de Áreas Degradadas. Universidade Federal de Viçosa. Sociedade Brasileira de Recuperação de Áreas Degradadas, 1998.Duque, M.J.F., Pedroza, J., Ciez, A., Sanz, M.A. &amp; Carrasco, R.M.. A geomorphical design for the rehabilitation of an abandoned sand quarry in central Spain. Landscape and urban planning, 42: 1-14, 1998.GUERRA, A. J. T.; ARAUJO, G., ALMEIDA, J. R. Gestão Ambiental De Áreas Degradadas. Rio de Janeiro : Bertrand Brasil, 2007.Marchetti, M. &amp; Panizza, M. Geomorphology and Environmental Impact Assesssment: A case study in Moema (Dolomites - Italy). In: Marchetti, M &amp; Pinas, V. (EDS). Geomorphology and Environemental Impact Assessements pp: 71-82, Balkema, 2001.MARTINS, S.V. Recuperação de Áreas Degradadas. Universidade Federal de Viçosa. Viçosa, 2013.Neimanis, U. &amp; kerr, A. Developing national environmental indicators. In: Berger, A.R. &amp; Iams, W.J. (EDTS) Assessing rapid environmental geoindicators: changes in earth systems. 1996.SANCHEZ, L.E. Desengenharia: o passive ambiental na desativaçao de empreendimentos industriais. São Paulo, EDUSP, 2001.SANCHEZ, L.E. Avaliação de Impacto Ambiental. São Paulo, Oficina de Textos, 2006.Bibliografia complementar:Berger, A.R. Assessing Rapid Environmetal Change Using Geoindicators. Environmetal Geology, 32, n. 1, 36-44, 1997.Fao. A provisional methodology for soil degradation assessment. FAO. Rome, 1979,Lindskog, P. and Tengberg, A. Land degradation, Natural resources and local knowledge in the Sahel zone of Burkina Faso. Geojournal, 33, 365-375, 1994.Morton, R. A. Geoindicators of coastal wet land and shorelines. In: berger, A.R. &amp; Iams, W.J. (EDTS) Assessing Rapid Environmental Geoindicators: Changes inEarth Systems. pp: 207-232, 1996.Murthy, R.C. Rao, Y. R. and Inamdar, A.B. Integrated coastal management of Mumbai Metropolitan Region. Ocean &amp; Coastal Management 44: 355-369, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
